--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H2">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N2">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O2">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P2">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q2">
-        <v>105.4119903509017</v>
+        <v>35.47947410977</v>
       </c>
       <c r="R2">
-        <v>105.4119903509017</v>
+        <v>319.31526698793</v>
       </c>
       <c r="S2">
-        <v>0.2882419878105448</v>
+        <v>0.05280108485779798</v>
       </c>
       <c r="T2">
-        <v>0.2882419878105448</v>
+        <v>0.05777581189753398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H3">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N3">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P3">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q3">
-        <v>89.4174271519223</v>
+        <v>30.121507201872</v>
       </c>
       <c r="R3">
-        <v>89.4174271519223</v>
+        <v>271.093564816848</v>
       </c>
       <c r="S3">
-        <v>0.2445059320232653</v>
+        <v>0.04482727824234727</v>
       </c>
       <c r="T3">
-        <v>0.2445059320232653</v>
+        <v>0.04905074209333745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H4">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N4">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O4">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P4">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q4">
-        <v>45.41987983546158</v>
+        <v>16.307359266174</v>
       </c>
       <c r="R4">
-        <v>45.41987983546158</v>
+        <v>146.766233395566</v>
       </c>
       <c r="S4">
-        <v>0.1241976022491215</v>
+        <v>0.02426885634651345</v>
       </c>
       <c r="T4">
-        <v>0.1241976022491215</v>
+        <v>0.02655538012184151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H5">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N5">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O5">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P5">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q5">
-        <v>57.13532282823594</v>
+        <v>18.408500022126</v>
       </c>
       <c r="R5">
-        <v>57.13532282823594</v>
+        <v>165.676500199134</v>
       </c>
       <c r="S5">
-        <v>0.1562326920437192</v>
+        <v>0.02739580549491273</v>
       </c>
       <c r="T5">
-        <v>0.1562326920437192</v>
+        <v>0.02997693909733648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,1301 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.867102</v>
+      </c>
+      <c r="H6">
+        <v>2.601306</v>
+      </c>
+      <c r="I6">
+        <v>0.1822127481805035</v>
+      </c>
+      <c r="J6">
+        <v>0.1873730734573072</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>25.510579</v>
+      </c>
+      <c r="N6">
+        <v>51.021158</v>
+      </c>
+      <c r="O6">
+        <v>0.1806664109270835</v>
+      </c>
+      <c r="P6">
+        <v>0.1281624931702333</v>
+      </c>
+      <c r="Q6">
+        <v>22.120274072058</v>
+      </c>
+      <c r="R6">
+        <v>132.721644432348</v>
+      </c>
+      <c r="S6">
+        <v>0.03291972323893203</v>
+      </c>
+      <c r="T6">
+        <v>0.02401420024725776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.84797</v>
+      </c>
+      <c r="H7">
+        <v>8.54391</v>
+      </c>
+      <c r="I7">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J7">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>40.91730166666667</v>
+      </c>
+      <c r="N7">
+        <v>122.751905</v>
+      </c>
+      <c r="O7">
+        <v>0.2897771170516138</v>
+      </c>
+      <c r="P7">
+        <v>0.3083463959441224</v>
+      </c>
+      <c r="Q7">
+        <v>116.5312476276167</v>
+      </c>
+      <c r="R7">
+        <v>1048.78122864855</v>
+      </c>
+      <c r="S7">
+        <v>0.1734235483743123</v>
+      </c>
+      <c r="T7">
+        <v>0.1897628871918411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.84797</v>
+      </c>
+      <c r="H8">
+        <v>8.54391</v>
+      </c>
+      <c r="I8">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J8">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.738136</v>
+      </c>
+      <c r="N8">
+        <v>104.214408</v>
+      </c>
+      <c r="O8">
+        <v>0.2460161470038337</v>
+      </c>
+      <c r="P8">
+        <v>0.2617811683839066</v>
+      </c>
+      <c r="Q8">
+        <v>98.93316918392</v>
+      </c>
+      <c r="R8">
+        <v>890.39852265528</v>
+      </c>
+      <c r="S8">
+        <v>0.1472338244126501</v>
+      </c>
+      <c r="T8">
+        <v>0.1611056622629889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.69758550535585</v>
-      </c>
-      <c r="H6">
-        <v>2.69758550535585</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>25.3270769183994</v>
-      </c>
-      <c r="N6">
-        <v>25.3270769183994</v>
-      </c>
-      <c r="O6">
-        <v>0.1868217858733491</v>
-      </c>
-      <c r="P6">
-        <v>0.1868217858733491</v>
-      </c>
-      <c r="Q6">
-        <v>68.32195558810693</v>
-      </c>
-      <c r="R6">
-        <v>68.32195558810693</v>
-      </c>
-      <c r="S6">
-        <v>0.1868217858733491</v>
-      </c>
-      <c r="T6">
-        <v>0.1868217858733491</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.84797</v>
+      </c>
+      <c r="H9">
+        <v>8.54391</v>
+      </c>
+      <c r="I9">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J9">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.806737</v>
+      </c>
+      <c r="N9">
+        <v>56.42021099999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1331896729995656</v>
+      </c>
+      <c r="P9">
+        <v>0.1417246332776418</v>
+      </c>
+      <c r="Q9">
+        <v>53.56102277389</v>
+      </c>
+      <c r="R9">
+        <v>482.0492049650099</v>
+      </c>
+      <c r="S9">
+        <v>0.07971031644394769</v>
+      </c>
+      <c r="T9">
+        <v>0.08722033385414975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.84797</v>
+      </c>
+      <c r="H10">
+        <v>8.54391</v>
+      </c>
+      <c r="I10">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J10">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.229913</v>
+      </c>
+      <c r="N10">
+        <v>63.689739</v>
+      </c>
+      <c r="O10">
+        <v>0.1503506520179033</v>
+      </c>
+      <c r="P10">
+        <v>0.1599853092240957</v>
+      </c>
+      <c r="Q10">
+        <v>60.46215532661</v>
+      </c>
+      <c r="R10">
+        <v>544.1593979394901</v>
+      </c>
+      <c r="S10">
+        <v>0.08998068528886637</v>
+      </c>
+      <c r="T10">
+        <v>0.09845833966596938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.84797</v>
+      </c>
+      <c r="H11">
+        <v>8.54391</v>
+      </c>
+      <c r="I11">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J11">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>25.510579</v>
+      </c>
+      <c r="N11">
+        <v>51.021158</v>
+      </c>
+      <c r="O11">
+        <v>0.1806664109270835</v>
+      </c>
+      <c r="P11">
+        <v>0.1281624931702333</v>
+      </c>
+      <c r="Q11">
+        <v>72.65336367463</v>
+      </c>
+      <c r="R11">
+        <v>435.92018204778</v>
+      </c>
+      <c r="S11">
+        <v>0.1081238241784487</v>
+      </c>
+      <c r="T11">
+        <v>0.07887390627421305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.030386</v>
+      </c>
+      <c r="H12">
+        <v>0.091158</v>
+      </c>
+      <c r="I12">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J12">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>40.91730166666667</v>
+      </c>
+      <c r="N12">
+        <v>122.751905</v>
+      </c>
+      <c r="O12">
+        <v>0.2897771170516138</v>
+      </c>
+      <c r="P12">
+        <v>0.3083463959441224</v>
+      </c>
+      <c r="Q12">
+        <v>1.243313128443333</v>
+      </c>
+      <c r="R12">
+        <v>11.18981815599</v>
+      </c>
+      <c r="S12">
+        <v>0.001850317222759317</v>
+      </c>
+      <c r="T12">
+        <v>0.002024647412090466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.030386</v>
+      </c>
+      <c r="H13">
+        <v>0.091158</v>
+      </c>
+      <c r="I13">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J13">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.738136</v>
+      </c>
+      <c r="N13">
+        <v>104.214408</v>
+      </c>
+      <c r="O13">
+        <v>0.2460161470038337</v>
+      </c>
+      <c r="P13">
+        <v>0.2617811683839066</v>
+      </c>
+      <c r="Q13">
+        <v>1.055553000496</v>
+      </c>
+      <c r="R13">
+        <v>9.499977004464</v>
+      </c>
+      <c r="S13">
+        <v>0.001570889787674304</v>
+      </c>
+      <c r="T13">
+        <v>0.00171889333578766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.030386</v>
+      </c>
+      <c r="H14">
+        <v>0.091158</v>
+      </c>
+      <c r="I14">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J14">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.806737</v>
+      </c>
+      <c r="N14">
+        <v>56.42021099999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1331896729995656</v>
+      </c>
+      <c r="P14">
+        <v>0.1417246332776418</v>
+      </c>
+      <c r="Q14">
+        <v>0.5714615104819999</v>
+      </c>
+      <c r="R14">
+        <v>5.143153594338</v>
+      </c>
+      <c r="S14">
+        <v>0.0008504575804751434</v>
+      </c>
+      <c r="T14">
+        <v>0.0009305846144770465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.030386</v>
+      </c>
+      <c r="H15">
+        <v>0.091158</v>
+      </c>
+      <c r="I15">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J15">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.229913</v>
+      </c>
+      <c r="N15">
+        <v>63.689739</v>
+      </c>
+      <c r="O15">
+        <v>0.1503506520179033</v>
+      </c>
+      <c r="P15">
+        <v>0.1599853092240957</v>
+      </c>
+      <c r="Q15">
+        <v>0.645092136418</v>
+      </c>
+      <c r="R15">
+        <v>5.805829227762</v>
+      </c>
+      <c r="S15">
+        <v>0.0009600357809904926</v>
+      </c>
+      <c r="T15">
+        <v>0.001050486876297906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.030386</v>
+      </c>
+      <c r="H16">
+        <v>0.091158</v>
+      </c>
+      <c r="I16">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J16">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.510579</v>
+      </c>
+      <c r="N16">
+        <v>51.021158</v>
+      </c>
+      <c r="O16">
+        <v>0.1806664109270835</v>
+      </c>
+      <c r="P16">
+        <v>0.1281624931702333</v>
+      </c>
+      <c r="Q16">
+        <v>0.775164453494</v>
+      </c>
+      <c r="R16">
+        <v>4.650986720964</v>
+      </c>
+      <c r="S16">
+        <v>0.001153611351765062</v>
+      </c>
+      <c r="T16">
+        <v>0.0008415336243177554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.620104</v>
+      </c>
+      <c r="H17">
+        <v>1.860312</v>
+      </c>
+      <c r="I17">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J17">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>40.91730166666667</v>
+      </c>
+      <c r="N17">
+        <v>122.751905</v>
+      </c>
+      <c r="O17">
+        <v>0.2897771170516138</v>
+      </c>
+      <c r="P17">
+        <v>0.3083463959441224</v>
+      </c>
+      <c r="Q17">
+        <v>25.37298243270667</v>
+      </c>
+      <c r="R17">
+        <v>228.35684189436</v>
+      </c>
+      <c r="S17">
+        <v>0.03776045254728966</v>
+      </c>
+      <c r="T17">
+        <v>0.04131810566797033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.620104</v>
+      </c>
+      <c r="H18">
+        <v>1.860312</v>
+      </c>
+      <c r="I18">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J18">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.738136</v>
+      </c>
+      <c r="N18">
+        <v>104.214408</v>
+      </c>
+      <c r="O18">
+        <v>0.2460161470038337</v>
+      </c>
+      <c r="P18">
+        <v>0.2617811683839066</v>
+      </c>
+      <c r="Q18">
+        <v>21.541257086144</v>
+      </c>
+      <c r="R18">
+        <v>193.871313775296</v>
+      </c>
+      <c r="S18">
+        <v>0.03205802148673687</v>
+      </c>
+      <c r="T18">
+        <v>0.0350784121995416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.620104</v>
+      </c>
+      <c r="H19">
+        <v>1.860312</v>
+      </c>
+      <c r="I19">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J19">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.806737</v>
+      </c>
+      <c r="N19">
+        <v>56.42021099999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1331896729995656</v>
+      </c>
+      <c r="P19">
+        <v>0.1417246332776418</v>
+      </c>
+      <c r="Q19">
+        <v>11.662132840648</v>
+      </c>
+      <c r="R19">
+        <v>104.959195565832</v>
+      </c>
+      <c r="S19">
+        <v>0.01735576079388397</v>
+      </c>
+      <c r="T19">
+        <v>0.01899095773631522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.620104</v>
+      </c>
+      <c r="H20">
+        <v>1.860312</v>
+      </c>
+      <c r="I20">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J20">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.229913</v>
+      </c>
+      <c r="N20">
+        <v>63.689739</v>
+      </c>
+      <c r="O20">
+        <v>0.1503506520179033</v>
+      </c>
+      <c r="P20">
+        <v>0.1599853092240957</v>
+      </c>
+      <c r="Q20">
+        <v>13.164753970952</v>
+      </c>
+      <c r="R20">
+        <v>118.482785738568</v>
+      </c>
+      <c r="S20">
+        <v>0.01959198406948359</v>
+      </c>
+      <c r="T20">
+        <v>0.02143786987230423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.620104</v>
+      </c>
+      <c r="H21">
+        <v>1.860312</v>
+      </c>
+      <c r="I21">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J21">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.510579</v>
+      </c>
+      <c r="N21">
+        <v>51.021158</v>
+      </c>
+      <c r="O21">
+        <v>0.1806664109270835</v>
+      </c>
+      <c r="P21">
+        <v>0.1281624931702333</v>
+      </c>
+      <c r="Q21">
+        <v>15.819212080216</v>
+      </c>
+      <c r="R21">
+        <v>94.915272481296</v>
+      </c>
+      <c r="S21">
+        <v>0.02354238839185552</v>
+      </c>
+      <c r="T21">
+        <v>0.01717364465786669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.393172</v>
+      </c>
+      <c r="H22">
+        <v>0.786344</v>
+      </c>
+      <c r="I22">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J22">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>40.91730166666667</v>
+      </c>
+      <c r="N22">
+        <v>122.751905</v>
+      </c>
+      <c r="O22">
+        <v>0.2897771170516138</v>
+      </c>
+      <c r="P22">
+        <v>0.3083463959441224</v>
+      </c>
+      <c r="Q22">
+        <v>16.08753733088667</v>
+      </c>
+      <c r="R22">
+        <v>96.52522398532</v>
+      </c>
+      <c r="S22">
+        <v>0.02394171404945456</v>
+      </c>
+      <c r="T22">
+        <v>0.01746494377468643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.393172</v>
+      </c>
+      <c r="H23">
+        <v>0.786344</v>
+      </c>
+      <c r="I23">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J23">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>34.738136</v>
+      </c>
+      <c r="N23">
+        <v>104.214408</v>
+      </c>
+      <c r="O23">
+        <v>0.2460161470038337</v>
+      </c>
+      <c r="P23">
+        <v>0.2617811683839066</v>
+      </c>
+      <c r="Q23">
+        <v>13.658062407392</v>
+      </c>
+      <c r="R23">
+        <v>81.948374444352</v>
+      </c>
+      <c r="S23">
+        <v>0.02032613307442511</v>
+      </c>
+      <c r="T23">
+        <v>0.01482745849225095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.393172</v>
+      </c>
+      <c r="H24">
+        <v>0.786344</v>
+      </c>
+      <c r="I24">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J24">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.806737</v>
+      </c>
+      <c r="N24">
+        <v>56.42021099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1331896729995656</v>
+      </c>
+      <c r="P24">
+        <v>0.1417246332776418</v>
+      </c>
+      <c r="Q24">
+        <v>7.394282399764</v>
+      </c>
+      <c r="R24">
+        <v>44.365694398584</v>
+      </c>
+      <c r="S24">
+        <v>0.01100428183474538</v>
+      </c>
+      <c r="T24">
+        <v>0.008027376950858277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.393172</v>
+      </c>
+      <c r="H25">
+        <v>0.786344</v>
+      </c>
+      <c r="I25">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J25">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.229913</v>
+      </c>
+      <c r="N25">
+        <v>63.689739</v>
+      </c>
+      <c r="O25">
+        <v>0.1503506520179033</v>
+      </c>
+      <c r="P25">
+        <v>0.1599853092240957</v>
+      </c>
+      <c r="Q25">
+        <v>8.347007354036</v>
+      </c>
+      <c r="R25">
+        <v>50.082044124216</v>
+      </c>
+      <c r="S25">
+        <v>0.01242214138365017</v>
+      </c>
+      <c r="T25">
+        <v>0.009061673712187633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.393172</v>
+      </c>
+      <c r="H26">
+        <v>0.786344</v>
+      </c>
+      <c r="I26">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J26">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.510579</v>
+      </c>
+      <c r="N26">
+        <v>51.021158</v>
+      </c>
+      <c r="O26">
+        <v>0.1806664109270835</v>
+      </c>
+      <c r="P26">
+        <v>0.1281624931702333</v>
+      </c>
+      <c r="Q26">
+        <v>10.030045366588</v>
+      </c>
+      <c r="R26">
+        <v>40.120181466352</v>
+      </c>
+      <c r="S26">
+        <v>0.01492686376608218</v>
+      </c>
+      <c r="T26">
+        <v>0.007259208366578041</v>
       </c>
     </row>
   </sheetData>
